--- a/data/pca/factorExposure/factorExposure_2018-04-10.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-04-10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,12 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,70 +723,94 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.01119171191173307</v>
+        <v>0.01496243391838125</v>
       </c>
       <c r="C2">
-        <v>0.02700700437650673</v>
+        <v>-0.008073688702769985</v>
       </c>
       <c r="D2">
-        <v>0.02777501685543251</v>
+        <v>0.03644668874657295</v>
       </c>
       <c r="E2">
-        <v>-0.002674867827329607</v>
+        <v>-0.0198395164874299</v>
       </c>
       <c r="F2">
-        <v>-0.09726418084404204</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>-0.0007225934011622374</v>
+      </c>
+      <c r="G2">
+        <v>-0.03211272306377307</v>
+      </c>
+      <c r="H2">
+        <v>-0.04916813555622596</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>-0.09158195011503027</v>
+        <v>0.06878902289712101</v>
       </c>
       <c r="C3">
-        <v>0.04570821427999252</v>
+        <v>-0.06153216386637333</v>
       </c>
       <c r="D3">
-        <v>0.02441927001707767</v>
+        <v>0.05233134009550738</v>
       </c>
       <c r="E3">
-        <v>-0.04231437145952741</v>
+        <v>-0.008786544373254034</v>
       </c>
       <c r="F3">
-        <v>-0.3364954745217031</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>-0.03874580025835252</v>
+      </c>
+      <c r="G3">
+        <v>-0.1423504000935785</v>
+      </c>
+      <c r="H3">
+        <v>-0.1185962098469878</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.04417848847311884</v>
+        <v>0.03609552063879305</v>
       </c>
       <c r="C4">
-        <v>0.01466638276094538</v>
+        <v>-0.03927675343913618</v>
       </c>
       <c r="D4">
-        <v>0.03947840949816544</v>
+        <v>0.05274090692768026</v>
       </c>
       <c r="E4">
-        <v>0.03430231670392336</v>
+        <v>0.01577253825936992</v>
       </c>
       <c r="F4">
-        <v>-0.06308888930364974</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>0.03532188197421982</v>
+      </c>
+      <c r="G4">
+        <v>-0.04209291811447844</v>
+      </c>
+      <c r="H4">
+        <v>-0.06024920876255071</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,190 +827,250 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.03266505025568225</v>
+        <v>0.01942409062956282</v>
       </c>
       <c r="C6">
-        <v>0.0124234367828873</v>
+        <v>-0.04142845578256688</v>
       </c>
       <c r="D6">
-        <v>0.03873958163225519</v>
+        <v>0.04920141586047897</v>
       </c>
       <c r="E6">
-        <v>0.02138135549907827</v>
+        <v>0.005066999691370547</v>
       </c>
       <c r="F6">
-        <v>-0.0108411815895806</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>0.02969378184721675</v>
+      </c>
+      <c r="G6">
+        <v>-0.01464949569992043</v>
+      </c>
+      <c r="H6">
+        <v>-0.06127799969608564</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.03692552021265988</v>
+        <v>0.008481148608576556</v>
       </c>
       <c r="C7">
-        <v>-0.02819776376002727</v>
+        <v>-0.02133692158666448</v>
       </c>
       <c r="D7">
-        <v>0.03759915017958943</v>
+        <v>0.03039765247575865</v>
       </c>
       <c r="E7">
-        <v>0.0173086552313044</v>
+        <v>0.04257111756474272</v>
       </c>
       <c r="F7">
-        <v>-0.03820013906226256</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>-0.00406998540678428</v>
+      </c>
+      <c r="G7">
+        <v>-0.02167325437770478</v>
+      </c>
+      <c r="H7">
+        <v>-0.03769036440507691</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.01486510183297357</v>
+        <v>0.002284396982750765</v>
       </c>
       <c r="C8">
-        <v>0.0005480274917078699</v>
+        <v>-0.009022053572515464</v>
       </c>
       <c r="D8">
-        <v>0.04641771118960206</v>
+        <v>0.008396636533805247</v>
       </c>
       <c r="E8">
-        <v>0.02326471849118565</v>
+        <v>0.00897836217750393</v>
       </c>
       <c r="F8">
-        <v>-0.06160619053309774</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>0.007907804923809027</v>
+      </c>
+      <c r="G8">
+        <v>-0.03738868677966494</v>
+      </c>
+      <c r="H8">
+        <v>-0.03609165871663423</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.03157353024288064</v>
+        <v>0.02594525351129055</v>
       </c>
       <c r="C9">
-        <v>0.009368834988682588</v>
+        <v>-0.0302541769965892</v>
       </c>
       <c r="D9">
-        <v>0.03436232845810717</v>
+        <v>0.0377535185179798</v>
       </c>
       <c r="E9">
-        <v>0.01492090593324003</v>
+        <v>0.005360890328103597</v>
       </c>
       <c r="F9">
-        <v>-0.08018586434590386</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>0.009578879519028275</v>
+      </c>
+      <c r="G9">
+        <v>-0.042377195600605</v>
+      </c>
+      <c r="H9">
+        <v>-0.05602568703028368</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.03989467074685452</v>
+        <v>0.1332761362003274</v>
       </c>
       <c r="C10">
-        <v>0.001192775331330504</v>
+        <v>0.09574230552897281</v>
       </c>
       <c r="D10">
-        <v>-0.1467975838177825</v>
+        <v>-0.1131012155690162</v>
       </c>
       <c r="E10">
-        <v>-0.04330543155720333</v>
+        <v>-0.001200301311925739</v>
       </c>
       <c r="F10">
-        <v>-0.067286778563313</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>-0.04102233641526332</v>
+      </c>
+      <c r="G10">
+        <v>-0.02700973758436293</v>
+      </c>
+      <c r="H10">
+        <v>0.007170702337192346</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.03070191747601567</v>
+        <v>0.01681698062694699</v>
       </c>
       <c r="C11">
-        <v>0.02187898810717354</v>
+        <v>-0.04025101641790219</v>
       </c>
       <c r="D11">
-        <v>0.03823526506436956</v>
+        <v>0.03037013789541699</v>
       </c>
       <c r="E11">
-        <v>0.01800241418545052</v>
+        <v>-0.00202855097911473</v>
       </c>
       <c r="F11">
-        <v>-0.02714443178484544</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>0.008423522339176901</v>
+      </c>
+      <c r="G11">
+        <v>-0.01869445382267892</v>
+      </c>
+      <c r="H11">
+        <v>-0.05239623516194934</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.04204587737480624</v>
+        <v>0.02064293732464769</v>
       </c>
       <c r="C12">
-        <v>0.02099094371170014</v>
+        <v>-0.03648808211058406</v>
       </c>
       <c r="D12">
-        <v>0.03155879749436721</v>
+        <v>0.0319755152786478</v>
       </c>
       <c r="E12">
-        <v>0.02600611990454249</v>
+        <v>0.01088246201440127</v>
       </c>
       <c r="F12">
-        <v>-0.001687130014669112</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>0.01213732574883774</v>
+      </c>
+      <c r="G12">
+        <v>-0.005117131228679261</v>
+      </c>
+      <c r="H12">
+        <v>-0.02120145696371303</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.01087118551509882</v>
+        <v>0.02072706319491691</v>
       </c>
       <c r="C13">
-        <v>0.02062301947490038</v>
+        <v>-0.007117395188788197</v>
       </c>
       <c r="D13">
-        <v>0.01318945693707979</v>
+        <v>0.02994428437651519</v>
       </c>
       <c r="E13">
-        <v>0.01076671984705259</v>
+        <v>-0.01354132617088735</v>
       </c>
       <c r="F13">
-        <v>-0.07683207451430674</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>0.01079714435821485</v>
+      </c>
+      <c r="G13">
+        <v>-0.0545980526498728</v>
+      </c>
+      <c r="H13">
+        <v>-0.07626274220929448</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.02039066803240608</v>
+        <v>0.01012361500901465</v>
       </c>
       <c r="C14">
-        <v>-0.003411851301381001</v>
+        <v>-0.01230309159944584</v>
       </c>
       <c r="D14">
-        <v>0.02244802691188012</v>
+        <v>0.01671623639496343</v>
       </c>
       <c r="E14">
-        <v>0.02122512972461948</v>
+        <v>0.01324921372078226</v>
       </c>
       <c r="F14">
-        <v>-0.05090347900298139</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>0.004334454714478808</v>
+      </c>
+      <c r="G14">
+        <v>-0.03938886110752254</v>
+      </c>
+      <c r="H14">
+        <v>-0.01222609734538824</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -997,30 +1087,42 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.03223026876412395</v>
+        <v>0.0185784285716846</v>
       </c>
       <c r="C16">
-        <v>0.02207342718654891</v>
+        <v>-0.03547788405224647</v>
       </c>
       <c r="D16">
-        <v>0.04091160218538028</v>
+        <v>0.025631709509719</v>
       </c>
       <c r="E16">
-        <v>0.02076946807891059</v>
+        <v>0.002123501121302314</v>
       </c>
       <c r="F16">
-        <v>-0.0277609007992758</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>0.01119893798182816</v>
+      </c>
+      <c r="G16">
+        <v>-0.01805852908041462</v>
+      </c>
+      <c r="H16">
+        <v>-0.03810766865400262</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1139,16 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,70 +1165,94 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>-0.03426756174733554</v>
+        <v>0.019461921677205</v>
       </c>
       <c r="C19">
-        <v>0.01661213033414647</v>
+        <v>-0.02863317169178713</v>
       </c>
       <c r="D19">
-        <v>0.05210119238589857</v>
+        <v>0.03548052561143381</v>
       </c>
       <c r="E19">
-        <v>0.03278862476377603</v>
+        <v>0.01036402724452883</v>
       </c>
       <c r="F19">
-        <v>-0.07768578622210766</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>0.01412419742723015</v>
+      </c>
+      <c r="G19">
+        <v>-0.05439595379657479</v>
+      </c>
+      <c r="H19">
+        <v>-0.05747818067671354</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.002568274438066371</v>
+        <v>0.005488221333398883</v>
       </c>
       <c r="C20">
-        <v>-0.007541249834009434</v>
+        <v>-0.01071854720418778</v>
       </c>
       <c r="D20">
-        <v>0.007635613736590481</v>
+        <v>0.02112716405618474</v>
       </c>
       <c r="E20">
-        <v>0.01383514083647928</v>
+        <v>0.003857325497106552</v>
       </c>
       <c r="F20">
-        <v>-0.05428805972676467</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>0.003212403968804438</v>
+      </c>
+      <c r="G20">
+        <v>-0.04802492865139917</v>
+      </c>
+      <c r="H20">
+        <v>-0.02858977202392181</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.01600299974066199</v>
+        <v>0.01193024479590719</v>
       </c>
       <c r="C21">
-        <v>-0.01650065982756115</v>
+        <v>-0.008849077507082255</v>
       </c>
       <c r="D21">
-        <v>0.03649511562553823</v>
+        <v>0.02207521787245314</v>
       </c>
       <c r="E21">
-        <v>0.003020579918528584</v>
+        <v>0.01592265832233149</v>
       </c>
       <c r="F21">
-        <v>-0.02998239786595206</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>-0.005704766892601121</v>
+      </c>
+      <c r="G21">
+        <v>-0.0401991737721242</v>
+      </c>
+      <c r="H21">
+        <v>-0.05341331389759171</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1137,10 +1269,16 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1157,230 +1295,302 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.02976426131371173</v>
+        <v>0.01365336656235112</v>
       </c>
       <c r="C24">
-        <v>0.02014641991632958</v>
+        <v>-0.03175821503102953</v>
       </c>
       <c r="D24">
-        <v>0.02227482940676802</v>
+        <v>0.02980410321928937</v>
       </c>
       <c r="E24">
-        <v>0.01694524473824567</v>
+        <v>0.0001926278077503585</v>
       </c>
       <c r="F24">
-        <v>-0.03131872227648</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>0.006756227008266443</v>
+      </c>
+      <c r="G24">
+        <v>-0.01247698205270924</v>
+      </c>
+      <c r="H24">
+        <v>-0.04649175117961526</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.03379435112986048</v>
+        <v>0.02746546369741097</v>
       </c>
       <c r="C25">
-        <v>0.01837530396508432</v>
+        <v>-0.03330400480740256</v>
       </c>
       <c r="D25">
-        <v>0.03501680238977751</v>
+        <v>0.03447690837775468</v>
       </c>
       <c r="E25">
-        <v>0.01417281081262967</v>
+        <v>0.006289243928931568</v>
       </c>
       <c r="F25">
-        <v>-0.03354463664928638</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>0.01572383291697895</v>
+      </c>
+      <c r="G25">
+        <v>-0.01560762656710582</v>
+      </c>
+      <c r="H25">
+        <v>-0.04685887897175774</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.01694335726968715</v>
+        <v>0.01275158688052555</v>
       </c>
       <c r="C26">
-        <v>0.01144563856468912</v>
+        <v>0.006362480238874182</v>
       </c>
       <c r="D26">
-        <v>0.02429508553750177</v>
+        <v>0.02184796431960501</v>
       </c>
       <c r="E26">
-        <v>-0.002650579269577204</v>
+        <v>-0.0002826074724621929</v>
       </c>
       <c r="F26">
-        <v>-0.05100957061539585</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>-0.002480859987285949</v>
+      </c>
+      <c r="G26">
+        <v>-0.02361404975326438</v>
+      </c>
+      <c r="H26">
+        <v>-0.02159952041799505</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>-0.03899950966446175</v>
+        <v>0.01463201330871125</v>
       </c>
       <c r="C27">
-        <v>0.01804917067363848</v>
+        <v>-0.01328714090769678</v>
       </c>
       <c r="D27">
-        <v>0.007593062742395389</v>
+        <v>0.00696944950746553</v>
       </c>
       <c r="E27">
-        <v>0.03053293717160981</v>
+        <v>0.006020090608818992</v>
       </c>
       <c r="F27">
-        <v>-0.01549512779568973</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>0.005159238178936282</v>
+      </c>
+      <c r="G27">
+        <v>-0.008793813767661425</v>
+      </c>
+      <c r="H27">
+        <v>0.001923149198091734</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.07057098249502458</v>
+        <v>0.1849094224660423</v>
       </c>
       <c r="C28">
-        <v>0.003685327593593475</v>
+        <v>0.1335400567973603</v>
       </c>
       <c r="D28">
-        <v>-0.2127038028669787</v>
+        <v>-0.1392043650918214</v>
       </c>
       <c r="E28">
-        <v>-0.06925777538372577</v>
+        <v>0.01136882382335377</v>
       </c>
       <c r="F28">
-        <v>-0.06829642828662918</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>-0.03743472236788132</v>
+      </c>
+      <c r="G28">
+        <v>-0.01595407224450677</v>
+      </c>
+      <c r="H28">
+        <v>0.009842739270864188</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.02229401725478155</v>
+        <v>0.01550281731596146</v>
       </c>
       <c r="C29">
-        <v>-0.002436481533320731</v>
+        <v>-0.01222620215188452</v>
       </c>
       <c r="D29">
-        <v>0.02613606911773105</v>
+        <v>0.0149987351999681</v>
       </c>
       <c r="E29">
-        <v>0.02243048416255596</v>
+        <v>0.01261498391929896</v>
       </c>
       <c r="F29">
-        <v>-0.04729417057073532</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>0.003986052999975639</v>
+      </c>
+      <c r="G29">
+        <v>-0.03894659954926298</v>
+      </c>
+      <c r="H29">
+        <v>-0.008067067774962024</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.05276889893585165</v>
+        <v>0.03554294224618204</v>
       </c>
       <c r="C30">
-        <v>0.07362648762570605</v>
+        <v>-0.05957498724923993</v>
       </c>
       <c r="D30">
-        <v>0.06293413658975813</v>
+        <v>0.07367532724966508</v>
       </c>
       <c r="E30">
-        <v>0.03932779500860678</v>
+        <v>-0.03247352396368994</v>
       </c>
       <c r="F30">
-        <v>-0.08309744241983436</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>0.03347367157708551</v>
+      </c>
+      <c r="G30">
+        <v>-0.05649488464531675</v>
+      </c>
+      <c r="H30">
+        <v>-0.07651481280512777</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.05408888917919692</v>
+        <v>0.04450048793690357</v>
       </c>
       <c r="C31">
-        <v>0.03592468262817802</v>
+        <v>-0.02670949726300012</v>
       </c>
       <c r="D31">
-        <v>0.02346901925582512</v>
+        <v>0.01814936945594841</v>
       </c>
       <c r="E31">
-        <v>0.01976021209349638</v>
+        <v>-0.002125438211370504</v>
       </c>
       <c r="F31">
-        <v>-0.02869976047783996</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>-0.0006102723422689011</v>
+      </c>
+      <c r="G31">
+        <v>-0.01617684635322566</v>
+      </c>
+      <c r="H31">
+        <v>-0.004781355412768209</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.02346456670474777</v>
+        <v>0.008224554375627873</v>
       </c>
       <c r="C32">
-        <v>-0.01390099680466183</v>
+        <v>-0.01866060221343368</v>
       </c>
       <c r="D32">
-        <v>0.06129886403694724</v>
+        <v>0.002123816273075799</v>
       </c>
       <c r="E32">
-        <v>0.03488836075408906</v>
+        <v>0.02992946960574628</v>
       </c>
       <c r="F32">
-        <v>-0.04171458362651979</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>0.02981074224026857</v>
+      </c>
+      <c r="G32">
+        <v>-0.04097566131058</v>
+      </c>
+      <c r="H32">
+        <v>-0.05109596170114559</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.03300902587444386</v>
+        <v>0.02202323555180702</v>
       </c>
       <c r="C33">
-        <v>0.04264485157894914</v>
+        <v>-0.03241849603380542</v>
       </c>
       <c r="D33">
-        <v>0.05431797552251964</v>
+        <v>0.03832626500771453</v>
       </c>
       <c r="E33">
-        <v>0.002400768264889098</v>
+        <v>-0.02045900952027124</v>
       </c>
       <c r="F33">
-        <v>-0.06206816310579471</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>-0.007927398273651336</v>
+      </c>
+      <c r="G33">
+        <v>-0.03768023286253075</v>
+      </c>
+      <c r="H33">
+        <v>-0.05342570551265694</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.03628818265244486</v>
+        <v>0.02505146377429779</v>
       </c>
       <c r="C34">
-        <v>0.01459150821970566</v>
+        <v>-0.04534733631698409</v>
       </c>
       <c r="D34">
-        <v>0.04371498525975728</v>
+        <v>0.02350284534735201</v>
       </c>
       <c r="E34">
-        <v>0.0292301581358156</v>
+        <v>0.01339835110258021</v>
       </c>
       <c r="F34">
-        <v>-0.02694045792019495</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>0.01731514602479339</v>
+      </c>
+      <c r="G34">
+        <v>-0.00839281693510646</v>
+      </c>
+      <c r="H34">
+        <v>-0.0375654978653799</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1397,30 +1607,42 @@
       <c r="F35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.01805385869873618</v>
+        <v>0.01585655104723413</v>
       </c>
       <c r="C36">
-        <v>0.0002031313134621644</v>
+        <v>0.0003408617145821912</v>
       </c>
       <c r="D36">
-        <v>0.01616440086637348</v>
+        <v>0.01017387947780089</v>
       </c>
       <c r="E36">
-        <v>0.0100329750631642</v>
+        <v>0.007320142494671687</v>
       </c>
       <c r="F36">
-        <v>-0.02824002283358762</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>-0.002156697780907338</v>
+      </c>
+      <c r="G36">
+        <v>-0.01658236409808499</v>
+      </c>
+      <c r="H36">
+        <v>-0.01763728447457791</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,150 +1659,198 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.009943402530690162</v>
+        <v>0.02551074360475574</v>
       </c>
       <c r="C38">
-        <v>0.006337405531634041</v>
+        <v>-0.02170006211663117</v>
       </c>
       <c r="D38">
-        <v>0.00471993510402669</v>
+        <v>0.00221606216708794</v>
       </c>
       <c r="E38">
-        <v>-0.01757790724598273</v>
+        <v>-0.0001035568477066888</v>
       </c>
       <c r="F38">
-        <v>-0.04431847138954596</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>0.004548974189258537</v>
+      </c>
+      <c r="G38">
+        <v>-0.02133423939827131</v>
+      </c>
+      <c r="H38">
+        <v>-0.0364832806011667</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.02955288528208075</v>
+        <v>0.007486879741353885</v>
       </c>
       <c r="C39">
-        <v>0.02104683872998978</v>
+        <v>-0.06322245590118804</v>
       </c>
       <c r="D39">
-        <v>0.06010968132855643</v>
+        <v>0.06205113970101517</v>
       </c>
       <c r="E39">
-        <v>0.0195682892323382</v>
+        <v>-0.006850436734523766</v>
       </c>
       <c r="F39">
-        <v>-0.04635762177295893</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>0.01231914765408521</v>
+      </c>
+      <c r="G39">
+        <v>-0.02894783251011273</v>
+      </c>
+      <c r="H39">
+        <v>-0.08166717699161449</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.01884164513102675</v>
+        <v>0.02602639235947602</v>
       </c>
       <c r="C40">
-        <v>0.04865459311071678</v>
+        <v>-0.02139123082000969</v>
       </c>
       <c r="D40">
-        <v>0.02653758589045719</v>
+        <v>0.02512887054162951</v>
       </c>
       <c r="E40">
-        <v>0.02997248547809691</v>
+        <v>-0.02409593366281182</v>
       </c>
       <c r="F40">
-        <v>-0.04125975872930246</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>0.02969615077569559</v>
+      </c>
+      <c r="G40">
+        <v>-0.01514273203649131</v>
+      </c>
+      <c r="H40">
+        <v>-0.06044773576378307</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.00502163017596586</v>
+        <v>0.01250891074997031</v>
       </c>
       <c r="C41">
-        <v>-0.001255813774739125</v>
+        <v>0.008136836452082984</v>
       </c>
       <c r="D41">
-        <v>0.006768483025753299</v>
+        <v>-0.004894535788421273</v>
       </c>
       <c r="E41">
-        <v>-0.009699634725401259</v>
+        <v>0.003666710562464301</v>
       </c>
       <c r="F41">
-        <v>-0.004864059640100645</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>-0.005438022636039755</v>
+      </c>
+      <c r="G41">
+        <v>0.002467631594854971</v>
+      </c>
+      <c r="H41">
+        <v>0.003522475439934586</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>-0.2383692823788071</v>
+        <v>0.1174028104640978</v>
       </c>
       <c r="C42">
-        <v>0.2124530566093099</v>
+        <v>-0.0998504848654535</v>
       </c>
       <c r="D42">
-        <v>0.1891875057652174</v>
+        <v>0.2326282093569314</v>
       </c>
       <c r="E42">
-        <v>-0.8653618025846485</v>
+        <v>-0.2272672191471386</v>
       </c>
       <c r="F42">
-        <v>0.2516666680628812</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>-0.8271776955900451</v>
+      </c>
+      <c r="G42">
+        <v>0.4056710070042421</v>
+      </c>
+      <c r="H42">
+        <v>-0.02087891979062011</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.003723665680199948</v>
+        <v>0.01309458762555939</v>
       </c>
       <c r="C43">
-        <v>0.002575609754066879</v>
+        <v>0.008090266311125253</v>
       </c>
       <c r="D43">
-        <v>0.01158318990754189</v>
+        <v>-0.003783918941737353</v>
       </c>
       <c r="E43">
-        <v>-0.002843979787362532</v>
+        <v>-0.0003956895045883488</v>
       </c>
       <c r="F43">
-        <v>-0.02525952669966494</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>-0.005799583820014901</v>
+      </c>
+      <c r="G43">
+        <v>-0.0002328426475378332</v>
+      </c>
+      <c r="H43">
+        <v>-0.004792143564549063</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.02463043880043444</v>
+        <v>0.01331040287105164</v>
       </c>
       <c r="C44">
-        <v>-0.003535686498967953</v>
+        <v>-0.03134841718301973</v>
       </c>
       <c r="D44">
-        <v>0.03827320351702211</v>
+        <v>0.02843090230787164</v>
       </c>
       <c r="E44">
-        <v>0.0005590602370328773</v>
+        <v>0.01321046510984045</v>
       </c>
       <c r="F44">
-        <v>-0.09192555403093053</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>-0.01045835890677694</v>
+      </c>
+      <c r="G44">
+        <v>-0.03602295645003046</v>
+      </c>
+      <c r="H44">
+        <v>-0.06236497491309293</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,70 +1867,94 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.01881956586968021</v>
+        <v>0.006198220445650931</v>
       </c>
       <c r="C46">
-        <v>0.008592729672971311</v>
+        <v>-0.005729787434796818</v>
       </c>
       <c r="D46">
-        <v>0.0615084127858298</v>
+        <v>0.01699864470780912</v>
       </c>
       <c r="E46">
-        <v>0.02484980997163024</v>
+        <v>0.0013489738234565</v>
       </c>
       <c r="F46">
-        <v>-0.0608393479503555</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>-0.001767809452621556</v>
+      </c>
+      <c r="G46">
+        <v>-0.04049709193910699</v>
+      </c>
+      <c r="H46">
+        <v>-0.01220428119462846</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.08212047098013525</v>
+        <v>0.06041378280403464</v>
       </c>
       <c r="C47">
-        <v>0.04783704615173106</v>
+        <v>-0.05748951974580252</v>
       </c>
       <c r="D47">
-        <v>0.01570154078947206</v>
+        <v>0.03038694477142824</v>
       </c>
       <c r="E47">
-        <v>0.02951889563415293</v>
+        <v>0.006076424461615346</v>
       </c>
       <c r="F47">
-        <v>-0.003541944315682127</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>0.009036595890220607</v>
+      </c>
+      <c r="G47">
+        <v>0.002453317181793807</v>
+      </c>
+      <c r="H47">
+        <v>0.03043861205060309</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.01823797792442566</v>
+        <v>0.01711424200155902</v>
       </c>
       <c r="C48">
-        <v>0.0109512193011114</v>
+        <v>-0.01336612793034549</v>
       </c>
       <c r="D48">
-        <v>0.02343315532259834</v>
+        <v>0.008972515804127135</v>
       </c>
       <c r="E48">
-        <v>0.0102278612851389</v>
+        <v>0.0004553001853474334</v>
       </c>
       <c r="F48">
-        <v>-0.03353151948774796</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>0.002631949160415528</v>
+      </c>
+      <c r="G48">
+        <v>-0.01710252997291031</v>
+      </c>
+      <c r="H48">
+        <v>-0.02138731064658451</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1677,50 +1971,68 @@
       <c r="F49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.08493463235041337</v>
+        <v>0.0636339379915558</v>
       </c>
       <c r="C50">
-        <v>0.0310337497981892</v>
+        <v>-0.05419772398905677</v>
       </c>
       <c r="D50">
-        <v>0.0351265130659086</v>
+        <v>0.02967634680023986</v>
       </c>
       <c r="E50">
-        <v>0.02259315377391867</v>
+        <v>0.01707678222191634</v>
       </c>
       <c r="F50">
-        <v>-0.01615291080653761</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>0.002972704434181226</v>
+      </c>
+      <c r="G50">
+        <v>-0.006477734182534159</v>
+      </c>
+      <c r="H50">
+        <v>0.01744315429573813</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.01994228617552067</v>
+        <v>0.01540310083126745</v>
       </c>
       <c r="C51">
-        <v>0.004767859047754848</v>
+        <v>-0.006339479738403838</v>
       </c>
       <c r="D51">
-        <v>0.001301070929123578</v>
+        <v>0.01042873584497249</v>
       </c>
       <c r="E51">
-        <v>0.005436525547082455</v>
+        <v>0.007352720406554276</v>
       </c>
       <c r="F51">
-        <v>-0.08417531424943975</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>-0.002929150852321016</v>
+      </c>
+      <c r="G51">
+        <v>-0.03111525527892376</v>
+      </c>
+      <c r="H51">
+        <v>-0.04599841440079169</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,190 +2049,250 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.08990738570453108</v>
+        <v>0.07669065002698836</v>
       </c>
       <c r="C53">
-        <v>0.05096455658889116</v>
+        <v>-0.08643346215708009</v>
       </c>
       <c r="D53">
-        <v>0.03785820981109232</v>
+        <v>0.05211500715451754</v>
       </c>
       <c r="E53">
-        <v>0.04046427424863323</v>
+        <v>0.009715640557749207</v>
       </c>
       <c r="F53">
-        <v>0.03677158576170456</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>0.02931691215753823</v>
+      </c>
+      <c r="G53">
+        <v>0.02382598070842218</v>
+      </c>
+      <c r="H53">
+        <v>0.02791607548941965</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.02434647607865083</v>
+        <v>0.02455408541929967</v>
       </c>
       <c r="C54">
-        <v>0.001568307165681337</v>
+        <v>-0.002513544496054646</v>
       </c>
       <c r="D54">
-        <v>0.002040637282461459</v>
+        <v>-0.007473579509019653</v>
       </c>
       <c r="E54">
-        <v>0.01598493367809566</v>
+        <v>0.005668693660941111</v>
       </c>
       <c r="F54">
-        <v>-0.03166148200365017</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>-0.006247111090257535</v>
+      </c>
+      <c r="G54">
+        <v>-0.03887312654204804</v>
+      </c>
+      <c r="H54">
+        <v>-0.001212445122761929</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.08737175771226831</v>
+        <v>0.05948521782868596</v>
       </c>
       <c r="C55">
-        <v>0.04608605882810574</v>
+        <v>-0.07808539812820826</v>
       </c>
       <c r="D55">
-        <v>0.042925669070133</v>
+        <v>0.04847126119878382</v>
       </c>
       <c r="E55">
-        <v>0.03365465332485681</v>
+        <v>0.009378303160179223</v>
       </c>
       <c r="F55">
-        <v>0.03845164771766545</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>0.01694274458788173</v>
+      </c>
+      <c r="G55">
+        <v>0.007645090483737212</v>
+      </c>
+      <c r="H55">
+        <v>0.03712451102505631</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.1278747203016639</v>
+        <v>0.102324692025212</v>
       </c>
       <c r="C56">
-        <v>0.07776250841332383</v>
+        <v>-0.1142054163435046</v>
       </c>
       <c r="D56">
-        <v>0.02551204108581387</v>
+        <v>0.06124943467936592</v>
       </c>
       <c r="E56">
-        <v>0.08133178990262077</v>
+        <v>0.01045973963006361</v>
       </c>
       <c r="F56">
-        <v>0.06822002926058177</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>0.0558448163980826</v>
+      </c>
+      <c r="G56">
+        <v>0.04722112968095413</v>
+      </c>
+      <c r="H56">
+        <v>0.0665069183495622</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>-0.04038981510384033</v>
+        <v>0.02875824609451647</v>
       </c>
       <c r="C57">
-        <v>0.03301148866055586</v>
+        <v>-0.01448641017522613</v>
       </c>
       <c r="D57">
-        <v>0.0218888065229264</v>
+        <v>0.03778828373830593</v>
       </c>
       <c r="E57">
-        <v>-0.01296221763321138</v>
+        <v>-0.01084302301007874</v>
       </c>
       <c r="F57">
-        <v>-0.05046380343496663</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>-0.009520303136068385</v>
+      </c>
+      <c r="G57">
+        <v>-0.06291118699530091</v>
+      </c>
+      <c r="H57">
+        <v>-0.05411481862219956</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.1484816033601904</v>
+        <v>0.1007693999699988</v>
       </c>
       <c r="C58">
-        <v>0.2047435622682773</v>
+        <v>-0.1477592158969284</v>
       </c>
       <c r="D58">
-        <v>0.2280917407631583</v>
+        <v>0.1139078192630958</v>
       </c>
       <c r="E58">
-        <v>0.02018587543558422</v>
+        <v>-0.2861906859798568</v>
       </c>
       <c r="F58">
-        <v>-0.5253021548462649</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>-0.25798850546761</v>
+      </c>
+      <c r="G58">
+        <v>-0.7965230163010442</v>
+      </c>
+      <c r="H58">
+        <v>0.3012978318186906</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.05375177140007691</v>
+        <v>0.1973759073706524</v>
       </c>
       <c r="C59">
-        <v>0.02652734349076979</v>
+        <v>0.1239099763531175</v>
       </c>
       <c r="D59">
-        <v>-0.1823196461431467</v>
+        <v>-0.1414509342054176</v>
       </c>
       <c r="E59">
-        <v>-0.0283751374746788</v>
+        <v>-0.008077317489041091</v>
       </c>
       <c r="F59">
-        <v>-0.09255012923155331</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>-0.006141138205362975</v>
+      </c>
+      <c r="G59">
+        <v>-0.01802754755518797</v>
+      </c>
+      <c r="H59">
+        <v>-0.02014854832531225</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.1365096914038653</v>
+        <v>0.2098302935534585</v>
       </c>
       <c r="C60">
-        <v>0.1122380822967422</v>
+        <v>-0.04812826493800097</v>
       </c>
       <c r="D60">
-        <v>-0.004070103616654532</v>
+        <v>0.01991398333926387</v>
       </c>
       <c r="E60">
-        <v>-0.0157440010274551</v>
+        <v>-0.05266281620059219</v>
       </c>
       <c r="F60">
-        <v>-0.1680145395582973</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>0.0751369363916136</v>
+      </c>
+      <c r="G60">
+        <v>-0.01646676467235865</v>
+      </c>
+      <c r="H60">
+        <v>-0.3793589515362537</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.02103094716549701</v>
+        <v>0.01481379469109192</v>
       </c>
       <c r="C61">
-        <v>0.01054505784152489</v>
+        <v>-0.0461056367400517</v>
       </c>
       <c r="D61">
-        <v>0.04413478554469999</v>
+        <v>0.03842959697604862</v>
       </c>
       <c r="E61">
-        <v>0.01026274119059609</v>
+        <v>0.003071770346225443</v>
       </c>
       <c r="F61">
-        <v>-0.01737292752308786</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>0.01682020123648294</v>
+      </c>
+      <c r="G61">
+        <v>-0.02101097020856657</v>
+      </c>
+      <c r="H61">
+        <v>-0.05829334479737436</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1937,150 +2309,198 @@
       <c r="F62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.0126775318062199</v>
+        <v>0.007125642769024747</v>
       </c>
       <c r="C63">
-        <v>0.003892527602830752</v>
+        <v>-0.01282814940875874</v>
       </c>
       <c r="D63">
-        <v>0.02483313722602272</v>
+        <v>0.01874459738927892</v>
       </c>
       <c r="E63">
-        <v>0.002810525722204453</v>
+        <v>0.007873851243874356</v>
       </c>
       <c r="F63">
-        <v>-0.007535448959951658</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>0.003211710988608487</v>
+      </c>
+      <c r="G63">
+        <v>-0.01389932975411946</v>
+      </c>
+      <c r="H63">
+        <v>-0.01515384130806545</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.0343128657352309</v>
+        <v>0.03660111657444227</v>
       </c>
       <c r="C64">
-        <v>0.001191540806181912</v>
+        <v>-0.03269270017489664</v>
       </c>
       <c r="D64">
-        <v>0.03283025601347594</v>
+        <v>0.02564023784626298</v>
       </c>
       <c r="E64">
-        <v>0.01963113027322243</v>
+        <v>0.01566692550426994</v>
       </c>
       <c r="F64">
-        <v>-0.0179342100970656</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>0.00605158661283879</v>
+      </c>
+      <c r="G64">
+        <v>0.01102861265949684</v>
+      </c>
+      <c r="H64">
+        <v>-0.05007588616393634</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.03631527609545815</v>
+        <v>0.03766996122831223</v>
       </c>
       <c r="C65">
-        <v>0.0136909789533634</v>
+        <v>-0.05260949956488866</v>
       </c>
       <c r="D65">
-        <v>0.03897321217434321</v>
+        <v>0.05663816797149158</v>
       </c>
       <c r="E65">
-        <v>0.02354022443158927</v>
+        <v>0.008087217256962556</v>
       </c>
       <c r="F65">
-        <v>-0.004110110946678673</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>0.04489761657834527</v>
+      </c>
+      <c r="G65">
+        <v>0.0007989156323455071</v>
+      </c>
+      <c r="H65">
+        <v>-0.07209518095605956</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.03433993899021205</v>
+        <v>0.0158256914026269</v>
       </c>
       <c r="C66">
-        <v>0.03146083287115976</v>
+        <v>-0.08313404259735815</v>
       </c>
       <c r="D66">
-        <v>0.06595371039470732</v>
+        <v>0.07405200479573359</v>
       </c>
       <c r="E66">
-        <v>0.04170201449059924</v>
+        <v>-0.007932751158690717</v>
       </c>
       <c r="F66">
-        <v>-0.03076744783675954</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>0.03457869591648139</v>
+      </c>
+      <c r="G66">
+        <v>-0.02875905333081092</v>
+      </c>
+      <c r="H66">
+        <v>-0.08717336749433824</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.02095669816511558</v>
+        <v>0.04675550345027962</v>
       </c>
       <c r="C67">
-        <v>0.0167804016028007</v>
+        <v>-0.02692075699729907</v>
       </c>
       <c r="D67">
-        <v>-0.005990865471992003</v>
+        <v>0.005660399361153122</v>
       </c>
       <c r="E67">
-        <v>-0.007092038383214452</v>
+        <v>-0.001726957503468339</v>
       </c>
       <c r="F67">
-        <v>-0.02709925119690151</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>0.01715125703084428</v>
+      </c>
+      <c r="G67">
+        <v>-0.01405256341819524</v>
+      </c>
+      <c r="H67">
+        <v>-0.03439083493602846</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.06579068203972202</v>
+        <v>0.1992794809829012</v>
       </c>
       <c r="C68">
-        <v>0.02138363526685859</v>
+        <v>0.1572517256357813</v>
       </c>
       <c r="D68">
-        <v>-0.210961176362905</v>
+        <v>-0.1438419044625789</v>
       </c>
       <c r="E68">
-        <v>-0.04064238305318062</v>
+        <v>-0.009296203086625137</v>
       </c>
       <c r="F68">
-        <v>-0.08645448404366264</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>-0.04664358782738882</v>
+      </c>
+      <c r="G68">
+        <v>-0.02549892404275773</v>
+      </c>
+      <c r="H68">
+        <v>0.04424618593454927</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.0591646304819313</v>
+        <v>0.05850444267145608</v>
       </c>
       <c r="C69">
-        <v>0.03732512843882215</v>
+        <v>-0.05411577629502139</v>
       </c>
       <c r="D69">
-        <v>0.01833936349241501</v>
+        <v>0.02239673921102529</v>
       </c>
       <c r="E69">
-        <v>0.03820088471424759</v>
+        <v>0.005066858656027789</v>
       </c>
       <c r="F69">
-        <v>-0.006196990654826484</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>0.0290729406403854</v>
+      </c>
+      <c r="G69">
+        <v>0.006670329928216155</v>
+      </c>
+      <c r="H69">
+        <v>-0.009653917180067315</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,170 +2517,224 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.07544562427330173</v>
+        <v>0.1799244412745878</v>
       </c>
       <c r="C71">
-        <v>0.0321365660292541</v>
+        <v>0.1201275101833804</v>
       </c>
       <c r="D71">
-        <v>-0.213255810925965</v>
+        <v>-0.1204846231400265</v>
       </c>
       <c r="E71">
-        <v>-0.07617022560158722</v>
+        <v>-0.01368297983810759</v>
       </c>
       <c r="F71">
-        <v>-0.09042484736558311</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>-0.05804877184599052</v>
+      </c>
+      <c r="G71">
+        <v>-0.02857113387006856</v>
+      </c>
+      <c r="H71">
+        <v>0.02364550891698295</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.09861386358943366</v>
+        <v>0.0614614197885509</v>
       </c>
       <c r="C72">
-        <v>0.07691481828348853</v>
+        <v>-0.09422746356980966</v>
       </c>
       <c r="D72">
-        <v>0.070390724790906</v>
+        <v>0.05284937113095745</v>
       </c>
       <c r="E72">
-        <v>0.08858921137393554</v>
+        <v>-0.01531240358152029</v>
       </c>
       <c r="F72">
-        <v>-0.0658966477321398</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>0.07285790553638991</v>
+      </c>
+      <c r="G72">
+        <v>-0.03000242570490845</v>
+      </c>
+      <c r="H72">
+        <v>-0.1028272072467317</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.1772329574874561</v>
+        <v>0.2745176143627204</v>
       </c>
       <c r="C73">
-        <v>0.182337699137952</v>
+        <v>-0.103205676061413</v>
       </c>
       <c r="D73">
-        <v>-0.02042112841990139</v>
+        <v>0.06559155771549377</v>
       </c>
       <c r="E73">
-        <v>-0.05751254863265622</v>
+        <v>-0.0945085729410387</v>
       </c>
       <c r="F73">
-        <v>-0.2067443301029046</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>0.08432730596122519</v>
+      </c>
+      <c r="G73">
+        <v>-0.02205790387426123</v>
+      </c>
+      <c r="H73">
+        <v>-0.4830039322431727</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.1192456220375525</v>
+        <v>0.09947933715908951</v>
       </c>
       <c r="C74">
-        <v>0.07122716704215178</v>
+        <v>-0.1171079816406067</v>
       </c>
       <c r="D74">
-        <v>0.02641659918206256</v>
+        <v>0.0647487481090295</v>
       </c>
       <c r="E74">
-        <v>0.0444862763188769</v>
+        <v>0.01153222609229639</v>
       </c>
       <c r="F74">
-        <v>0.07926190169003659</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>0.03957910875431104</v>
+      </c>
+      <c r="G74">
+        <v>0.03383326338343258</v>
+      </c>
+      <c r="H74">
+        <v>0.03754265680120815</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.2044029886358114</v>
+        <v>0.2032447981390296</v>
       </c>
       <c r="C75">
-        <v>0.1379352284586259</v>
+        <v>-0.1976360945041784</v>
       </c>
       <c r="D75">
-        <v>0.02020199817883571</v>
+        <v>0.0957994120612095</v>
       </c>
       <c r="E75">
-        <v>0.149108201456835</v>
+        <v>0.008835764765516646</v>
       </c>
       <c r="F75">
-        <v>0.1252051494400317</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>0.1056926914475189</v>
+      </c>
+      <c r="G75">
+        <v>0.08330233948011846</v>
+      </c>
+      <c r="H75">
+        <v>0.1496321088911313</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.2535072752160377</v>
+        <v>0.1620289506554311</v>
       </c>
       <c r="C76">
-        <v>0.1235080146931501</v>
+        <v>-0.180926341152064</v>
       </c>
       <c r="D76">
-        <v>0.02570409582897151</v>
+        <v>0.08973896712893843</v>
       </c>
       <c r="E76">
-        <v>0.1784409479813695</v>
+        <v>0.04789166887315013</v>
       </c>
       <c r="F76">
-        <v>0.2043542597487639</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>0.09157095600388898</v>
+      </c>
+      <c r="G76">
+        <v>0.07202736294387993</v>
+      </c>
+      <c r="H76">
+        <v>0.1267457968509038</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.09915474921102112</v>
+        <v>0.05478058380531734</v>
       </c>
       <c r="C77">
-        <v>0.07342786144785536</v>
+        <v>-0.06615106340926258</v>
       </c>
       <c r="D77">
-        <v>0.113380581536971</v>
+        <v>0.06237167388924881</v>
       </c>
       <c r="E77">
-        <v>-0.03902037523909754</v>
+        <v>-0.01886443198245026</v>
       </c>
       <c r="F77">
-        <v>-0.1209602130262222</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>-0.03559503142961893</v>
+      </c>
+      <c r="G77">
+        <v>-0.06256216269044099</v>
+      </c>
+      <c r="H77">
+        <v>-0.02356101048057227</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.06179059661519685</v>
+        <v>0.02974105315999483</v>
       </c>
       <c r="C78">
-        <v>0.02990477866486134</v>
+        <v>-0.06159185662012417</v>
       </c>
       <c r="D78">
-        <v>0.1198704878762735</v>
+        <v>0.05130942124877754</v>
       </c>
       <c r="E78">
-        <v>0.03052022276724466</v>
+        <v>0.005095397992377121</v>
       </c>
       <c r="F78">
-        <v>-0.07458108123868765</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>0.01324216697671503</v>
+      </c>
+      <c r="G78">
+        <v>-0.0530205446128174</v>
+      </c>
+      <c r="H78">
+        <v>-0.0964380989536668</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2277,50 +2751,68 @@
       <c r="F79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.567190630224924</v>
+        <v>0.1131945324988573</v>
       </c>
       <c r="C80">
-        <v>-0.803576915454936</v>
+        <v>-0.086262691750293</v>
       </c>
       <c r="D80">
-        <v>0.07273411739308484</v>
+        <v>0.06107353707580999</v>
       </c>
       <c r="E80">
-        <v>-0.04710388340744168</v>
+        <v>0.9100308478754606</v>
       </c>
       <c r="F80">
-        <v>-0.04408041497576735</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>-0.2922597601056239</v>
+      </c>
+      <c r="G80">
+        <v>-0.1674888106424244</v>
+      </c>
+      <c r="H80">
+        <v>-0.02307686481467197</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.1626891024565489</v>
+        <v>0.1335438931697507</v>
       </c>
       <c r="C81">
-        <v>0.09409297736568702</v>
+        <v>-0.1228412971820501</v>
       </c>
       <c r="D81">
-        <v>0.007876603057701057</v>
+        <v>0.05931324143935301</v>
       </c>
       <c r="E81">
-        <v>0.1139725062392862</v>
+        <v>0.01695773337444168</v>
       </c>
       <c r="F81">
-        <v>0.1144923661063366</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>0.05827867505886496</v>
+      </c>
+      <c r="G81">
+        <v>0.04929438949626214</v>
+      </c>
+      <c r="H81">
+        <v>0.08144685485702986</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2337,30 +2829,42 @@
       <c r="F82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:6">
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.03154609703729453</v>
+        <v>0.02836426978856239</v>
       </c>
       <c r="C83">
-        <v>0.02651326571632749</v>
+        <v>-0.02085271958297244</v>
       </c>
       <c r="D83">
-        <v>0.03049548894181094</v>
+        <v>0.01833845835778613</v>
       </c>
       <c r="E83">
-        <v>-0.01177514901487977</v>
+        <v>-0.007698805822336066</v>
       </c>
       <c r="F83">
-        <v>-0.05691679720149122</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>-0.004705677671918617</v>
+      </c>
+      <c r="G83">
+        <v>-0.03802924833095354</v>
+      </c>
+      <c r="H83">
+        <v>-0.04420364421970278</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2377,230 +2881,302 @@
       <c r="F84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.2278638605633699</v>
+        <v>0.1934245293807074</v>
       </c>
       <c r="C85">
-        <v>0.1383733617736794</v>
+        <v>-0.1893653362694354</v>
       </c>
       <c r="D85">
-        <v>0.02577948651005079</v>
+        <v>0.1072743306396918</v>
       </c>
       <c r="E85">
-        <v>0.1370015057236377</v>
+        <v>0.008410836849853625</v>
       </c>
       <c r="F85">
-        <v>0.1573402764379063</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>0.100904029570227</v>
+      </c>
+      <c r="G85">
+        <v>0.1111499503815468</v>
+      </c>
+      <c r="H85">
+        <v>0.07433803745755943</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.008317441704556455</v>
+        <v>0.01533750558594883</v>
       </c>
       <c r="C86">
-        <v>-0.001896434009610526</v>
+        <v>-0.02654008585501855</v>
       </c>
       <c r="D86">
-        <v>0.08034894714545918</v>
+        <v>0.02842095573739943</v>
       </c>
       <c r="E86">
-        <v>-0.0003690926703217078</v>
+        <v>0.005760988230295696</v>
       </c>
       <c r="F86">
-        <v>-0.04792619660575086</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>-0.01686172462810754</v>
+      </c>
+      <c r="G86">
+        <v>-0.03562438476970094</v>
+      </c>
+      <c r="H86">
+        <v>-0.08375724006745804</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.03439372793294926</v>
+        <v>0.01614508968456727</v>
       </c>
       <c r="C87">
-        <v>0.01857992492783722</v>
+        <v>-0.03098221018977729</v>
       </c>
       <c r="D87">
-        <v>0.04404410913304925</v>
+        <v>0.03302336103479388</v>
       </c>
       <c r="E87">
-        <v>0.002108086636261006</v>
+        <v>-0.001931280049172743</v>
       </c>
       <c r="F87">
-        <v>-0.1038634959426342</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>-0.007829131197989914</v>
+      </c>
+      <c r="G87">
+        <v>-0.06880624785647851</v>
+      </c>
+      <c r="H87">
+        <v>-0.08505706219915461</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.02012441334876443</v>
+        <v>0.04048461696096145</v>
       </c>
       <c r="C88">
-        <v>-0.003880601631582343</v>
+        <v>-0.004882179408576081</v>
       </c>
       <c r="D88">
-        <v>-0.005493102044612485</v>
+        <v>0.02470086209091503</v>
       </c>
       <c r="E88">
-        <v>0.01635095740173642</v>
+        <v>0.0215312424495114</v>
       </c>
       <c r="F88">
-        <v>0.01719444480296839</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>0.01600151062361585</v>
+      </c>
+      <c r="G88">
+        <v>0.003991003809866074</v>
+      </c>
+      <c r="H88">
+        <v>-0.008449343375164446</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.1009021988077757</v>
+        <v>0.3048492283372471</v>
       </c>
       <c r="C89">
-        <v>0.04801024928830289</v>
+        <v>0.2135823986005748</v>
       </c>
       <c r="D89">
-        <v>-0.3313082617810514</v>
+        <v>-0.2111590815100741</v>
       </c>
       <c r="E89">
-        <v>-0.04644664816483693</v>
+        <v>-0.01123452277757801</v>
       </c>
       <c r="F89">
-        <v>-0.1190246386149667</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>-0.01554219387245501</v>
+      </c>
+      <c r="G89">
+        <v>0.01704287305794577</v>
+      </c>
+      <c r="H89">
+        <v>0.004589613259171705</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.08963740682458446</v>
+        <v>0.2557734885618442</v>
       </c>
       <c r="C90">
-        <v>0.01874530675299633</v>
+        <v>0.1992271708266936</v>
       </c>
       <c r="D90">
-        <v>-0.3604131692732678</v>
+        <v>-0.1967217926925993</v>
       </c>
       <c r="E90">
-        <v>-0.07488030646208228</v>
+        <v>-0.003737683342756127</v>
       </c>
       <c r="F90">
-        <v>-0.06092931040750209</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>-0.06010005277246708</v>
+      </c>
+      <c r="G90">
+        <v>0.006235251727929411</v>
+      </c>
+      <c r="H90">
+        <v>0.05803320742855227</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.2561099267239975</v>
+        <v>0.1994836249994881</v>
       </c>
       <c r="C91">
-        <v>0.1766289264401583</v>
+        <v>-0.1830252131586483</v>
       </c>
       <c r="D91">
-        <v>0.01844724002268569</v>
+        <v>0.08695824411282094</v>
       </c>
       <c r="E91">
-        <v>0.1187395492931393</v>
+        <v>-0.002205053880523569</v>
       </c>
       <c r="F91">
-        <v>0.2412873223778169</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>0.08650815920390116</v>
+      </c>
+      <c r="G91">
+        <v>0.1016705416077403</v>
+      </c>
+      <c r="H91">
+        <v>0.1681005481938718</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.1585906036934301</v>
+        <v>0.2785445311760211</v>
       </c>
       <c r="C92">
-        <v>0.0698080504538646</v>
+        <v>0.09487624552746002</v>
       </c>
       <c r="D92">
-        <v>-0.4249156118726691</v>
+        <v>-0.1727604708708542</v>
       </c>
       <c r="E92">
-        <v>0.08492558251532525</v>
+        <v>0.006154233614959978</v>
       </c>
       <c r="F92">
-        <v>0.04332582102671863</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>0.003696369076835613</v>
+      </c>
+      <c r="G92">
+        <v>-0.03612597020440263</v>
+      </c>
+      <c r="H92">
+        <v>0.1559002899668482</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.0876574443688322</v>
+        <v>0.2850751598301079</v>
       </c>
       <c r="C93">
-        <v>0.05791114262764301</v>
+        <v>0.1929206581544709</v>
       </c>
       <c r="D93">
-        <v>-0.4268100370133527</v>
+        <v>-0.2046532390404187</v>
       </c>
       <c r="E93">
-        <v>-0.1025339032051486</v>
+        <v>-0.03362604945695689</v>
       </c>
       <c r="F93">
-        <v>-0.07920033768811002</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>-0.05094801891865847</v>
+      </c>
+      <c r="G93">
+        <v>0.01256039136837203</v>
+      </c>
+      <c r="H93">
+        <v>0.001896380469998051</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.2494110250172328</v>
+        <v>0.2500416166111794</v>
       </c>
       <c r="C94">
-        <v>0.1814976078198437</v>
+        <v>-0.2009173963395959</v>
       </c>
       <c r="D94">
-        <v>0.01241422259343133</v>
+        <v>0.1093721816856741</v>
       </c>
       <c r="E94">
-        <v>0.2240917812967761</v>
+        <v>-0.006494223393202284</v>
       </c>
       <c r="F94">
-        <v>0.1970485844391747</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>0.223368959130252</v>
+      </c>
+      <c r="G94">
+        <v>0.1784245703227804</v>
+      </c>
+      <c r="H94">
+        <v>0.3871635187685305</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.01863923142660637</v>
+        <v>0.03183375021321572</v>
       </c>
       <c r="C95">
-        <v>0.08725169359529145</v>
+        <v>-0.08243249229122072</v>
       </c>
       <c r="D95">
-        <v>0.0563946074503783</v>
+        <v>0.05177800012013484</v>
       </c>
       <c r="E95">
-        <v>0.0005125011692783746</v>
+        <v>-0.08192487358115939</v>
       </c>
       <c r="F95">
-        <v>-0.007858790747786603</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>-0.02054535845800412</v>
+      </c>
+      <c r="G95">
+        <v>-0.03973919656799307</v>
+      </c>
+      <c r="H95">
+        <v>-0.0386982938646972</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,10 +3193,16 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2637,30 +3219,42 @@
       <c r="F97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.1437431156040958</v>
+        <v>0.1882761766660367</v>
       </c>
       <c r="C98">
-        <v>0.1199542022977557</v>
+        <v>-0.07336044383008801</v>
       </c>
       <c r="D98">
-        <v>-0.01700783624187188</v>
+        <v>0.009105184581315443</v>
       </c>
       <c r="E98">
-        <v>-0.04971216897836497</v>
+        <v>-0.06623819739243125</v>
       </c>
       <c r="F98">
-        <v>-0.1731003976129835</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>0.01289085509447434</v>
+      </c>
+      <c r="G98">
+        <v>-0.06005661165442164</v>
+      </c>
+      <c r="H98">
+        <v>-0.3327429791811384</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2677,10 +3271,16 @@
       <c r="F99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,85 +3297,115 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.008267851023370415</v>
+        <v>0.009350902070060762</v>
       </c>
       <c r="C101">
-        <v>-0.002477735810306923</v>
+        <v>-0.01197062513012915</v>
       </c>
       <c r="D101">
-        <v>0.06822150176419127</v>
+        <v>0.01608908667086519</v>
       </c>
       <c r="E101">
-        <v>0.03474186484167788</v>
+        <v>-0.001508537858324619</v>
       </c>
       <c r="F101">
-        <v>-0.1682125878485573</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>-0.006056775187725521</v>
+      </c>
+      <c r="G101">
+        <v>-0.0976829899702326</v>
+      </c>
+      <c r="H101">
+        <v>0.007840541068654082</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>-0.1036089131757064</v>
+        <v>0.09535231543055897</v>
       </c>
       <c r="C102">
-        <v>0.05940265516375551</v>
+        <v>-0.08338332948175178</v>
       </c>
       <c r="D102">
-        <v>0.01540874745027119</v>
+        <v>0.05402332846717825</v>
       </c>
       <c r="E102">
-        <v>0.0700822430744461</v>
+        <v>0.008633470249493701</v>
       </c>
       <c r="F102">
-        <v>0.09591328172790842</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>0.05287981130707647</v>
+      </c>
+      <c r="G102">
+        <v>0.05067748534342015</v>
+      </c>
+      <c r="H102">
+        <v>0.0610585988306508</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>-0.04325059132867506</v>
+        <v>0.01275087851807804</v>
       </c>
       <c r="C103">
-        <v>0.01144593836163414</v>
+        <v>-0.01563926573364447</v>
       </c>
       <c r="D103">
-        <v>0.0234128991177377</v>
+        <v>0.01011469061563572</v>
       </c>
       <c r="E103">
-        <v>0.0369376005433856</v>
+        <v>0.01295220967208126</v>
       </c>
       <c r="F103">
-        <v>0.01055573553700799</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>0.00375100424306437</v>
+      </c>
+      <c r="G103">
+        <v>-0.006088455203480081</v>
+      </c>
+      <c r="H103">
+        <v>0.0144519618180288</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>0.1269193261564425</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>0.6367825270352248</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>0.7415524682575417</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>0.02981683221576267</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>0.1239968890066102</v>
+      </c>
+      <c r="G104">
+        <v>-0.02273767536045038</v>
+      </c>
+      <c r="H104">
+        <v>0.05154754509599771</v>
       </c>
     </row>
   </sheetData>
